--- a/Zeitaufzeichnung.xlsx
+++ b/Zeitaufzeichnung.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\workspace\school\SEW\gitrep\School-Quakes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robert\Desktop\4CHIT\ITP\Rafeiner-Magor\School-Quakes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12440"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -483,15 +483,15 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="6" width="11.42578125" style="1"/>
+    <col min="6" max="6" width="11.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,7 +499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -507,10 +507,10 @@
         <v>4.5</v>
       </c>
       <c r="H2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -521,7 +521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -532,7 +532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -540,10 +540,10 @@
         <v>7</v>
       </c>
       <c r="H5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -555,10 +555,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B7" s="3"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -569,18 +569,18 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="1">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H10" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>11</v>
       </c>
@@ -591,7 +591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>13</v>
       </c>
@@ -602,7 +602,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>14</v>
       </c>
@@ -613,7 +613,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>15</v>
       </c>
@@ -624,94 +624,94 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B23" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B28" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>33</v>
       </c>

--- a/Zeitaufzeichnung.xlsx
+++ b/Zeitaufzeichnung.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robert\Desktop\4CHIT\ITP\Rafeiner-Magor\School-Quakes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\workspace\school\SEW\gitrep\School-Quakes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -65,9 +65,6 @@
     <t>Lastenheft</t>
   </si>
   <si>
-    <t>bis jetzt 2,5</t>
-  </si>
-  <si>
     <t>Machbarkeitsstudie</t>
   </si>
   <si>
@@ -129,6 +126,9 @@
   </si>
   <si>
     <t>Abnahme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bis jetzt 4 </t>
   </si>
 </sst>
 </file>
@@ -482,16 +482,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="11.453125" style="1"/>
+    <col min="6" max="6" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,7 +499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -510,7 +510,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -521,7 +521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -532,7 +532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -543,7 +543,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -555,10 +555,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -569,7 +569,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -580,20 +580,20 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="H11">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -602,9 +602,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -613,9 +613,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -624,96 +624,96 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B17" s="2" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B19" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B20" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B21" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B23" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B25" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B26" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B28" s="2" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B29" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B30" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B31" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B32" t="s">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B33" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Zeitaufzeichnung.xlsx
+++ b/Zeitaufzeichnung.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\workspace\school\SEW\gitrep\School-Quakes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robert\Desktop\TGM\4CHIT\ITP\Rafeiner-Magor\School-Quakes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12440"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -128,7 +128,7 @@
     <t>Abnahme</t>
   </si>
   <si>
-    <t xml:space="preserve">bis jetzt 4 </t>
+    <t>bis jz 5</t>
   </si>
 </sst>
 </file>
@@ -483,15 +483,15 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="6" width="11.42578125" style="1"/>
+    <col min="6" max="6" width="11.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,7 +499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -510,7 +510,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -521,7 +521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -532,7 +532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -543,7 +543,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -555,10 +555,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B7" s="3"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -569,7 +569,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -580,7 +580,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>11</v>
       </c>
@@ -591,7 +591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>12</v>
       </c>
@@ -602,7 +602,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>13</v>
       </c>
@@ -613,7 +613,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>14</v>
       </c>
@@ -624,94 +624,94 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B28" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>32</v>
       </c>

--- a/Zeitaufzeichnung.xlsx
+++ b/Zeitaufzeichnung.xlsx
@@ -128,7 +128,7 @@
     <t>Abnahme</t>
   </si>
   <si>
-    <t>bis jz 5</t>
+    <t>bis jz 5,5</t>
   </si>
 </sst>
 </file>

--- a/Zeitaufzeichnung.xlsx
+++ b/Zeitaufzeichnung.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robert\Desktop\TGM\4CHIT\ITP\Rafeiner-Magor\School-Quakes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Limbeck\Desktop\Schule 15-16\Projekt\Schools &amp; Quakes\School &amp; Quakes Projekt-Repository\School-Quakes\School-Quakes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -128,7 +128,7 @@
     <t>Abnahme</t>
   </si>
   <si>
-    <t>bis jz 5,5</t>
+    <t>bis jz 8,5</t>
   </si>
 </sst>
 </file>
@@ -482,7 +482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>

--- a/Zeitaufzeichnung.xlsx
+++ b/Zeitaufzeichnung.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Limbeck\Desktop\Schule 15-16\Projekt\Schools &amp; Quakes\School &amp; Quakes Projekt-Repository\School-Quakes\School-Quakes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\workspace\school\SEW\gitrep\School-Quakes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Durchgeführt</t>
   </si>
@@ -44,15 +44,9 @@
     <t>Projektkoordination</t>
   </si>
   <si>
-    <t>bis jetzt 1</t>
-  </si>
-  <si>
     <t>Projektcontroling</t>
   </si>
   <si>
-    <t>bis jetzt 2</t>
-  </si>
-  <si>
     <t>Projektabschluss</t>
   </si>
   <si>
@@ -128,7 +122,10 @@
     <t>Abnahme</t>
   </si>
   <si>
-    <t>bis jz 8,5</t>
+    <t>bis jetzt 3</t>
+  </si>
+  <si>
+    <t>bis jetzt 1,5</t>
   </si>
 </sst>
 </file>
@@ -483,15 +480,15 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="11.453125" style="1"/>
+    <col min="6" max="6" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,7 +496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -510,7 +507,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -521,31 +518,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="H4">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="H5">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F6" s="1">
         <f>[1]Projektmanagement!J5</f>
@@ -555,23 +552,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F9" s="1">
-        <v>4</v>
+        <v>11.5</v>
       </c>
       <c r="H9" s="4">
         <v>21.5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F10" s="1">
         <v>2</v>
@@ -580,20 +577,20 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>33</v>
+        <v>9</v>
+      </c>
+      <c r="F11" s="1">
+        <v>9.5</v>
       </c>
       <c r="H11">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -602,9 +599,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -613,9 +610,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -624,96 +621,96 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B17" s="2" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B19" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B20" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B21" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B23" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B25" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B26" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B28" s="2" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B29" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B30" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B31" t="s">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B33" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Zeitaufzeichnung.xlsx
+++ b/Zeitaufzeichnung.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\workspace\school\SEW\gitrep\School-Quakes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robert\Desktop\TGM\4CHIT\ITP\Rafeiner-Magor\School-Quakes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12440"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -480,15 +480,15 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="6" width="11.42578125" style="1"/>
+    <col min="6" max="6" width="11.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
@@ -496,7 +496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -507,7 +507,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -529,7 +529,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -540,7 +540,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -552,10 +552,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B7" s="3"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -566,7 +566,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>8</v>
       </c>
@@ -577,18 +577,18 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="1">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="H11">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>10</v>
       </c>
@@ -599,7 +599,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>11</v>
       </c>
@@ -610,7 +610,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>12</v>
       </c>
@@ -621,94 +621,94 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B17" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B23" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B28" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>30</v>
       </c>

--- a/Zeitaufzeichnung.xlsx
+++ b/Zeitaufzeichnung.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robert\Desktop\TGM\4CHIT\ITP\Rafeiner-Magor\School-Quakes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\workspace\school\SEW\gitrep\School-Quakes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>Durchgeführt</t>
   </si>
@@ -125,7 +125,31 @@
     <t>bis jetzt 3</t>
   </si>
   <si>
-    <t>bis jetzt 1,5</t>
+    <t>Borsos</t>
+  </si>
+  <si>
+    <t>Frassl</t>
+  </si>
+  <si>
+    <t>Limbeck</t>
+  </si>
+  <si>
+    <t>Stunden</t>
+  </si>
+  <si>
+    <t>Gesamt</t>
+  </si>
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>Borsoso</t>
+  </si>
+  <si>
+    <t>stunden Gesamt</t>
+  </si>
+  <si>
+    <t>bis jetzt 2</t>
   </si>
 </sst>
 </file>
@@ -164,12 +188,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -198,17 +225,17 @@
       <sheetName val="Gesamtansicht"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1">
         <row r="5">
           <cell r="J5">
             <v>0</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -477,18 +504,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="11.453125" style="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
@@ -496,7 +524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -507,7 +535,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -518,18 +546,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H4">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -540,7 +568,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -552,10 +580,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -566,7 +594,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>8</v>
       </c>
@@ -577,7 +605,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>9</v>
       </c>
@@ -588,18 +616,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="1">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H12">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>11</v>
       </c>
@@ -610,7 +638,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>12</v>
       </c>
@@ -621,96 +649,212 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40">
+        <f>B37+B38+B39</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" s="6">
+        <v>42005</v>
+      </c>
+      <c r="C42" s="7">
+        <v>42036</v>
+      </c>
+      <c r="D42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <f>B43+C43</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ref="D44:D45" si="0">B44+C44</f>
+        <v>2</v>
+      </c>
+      <c r="H44" s="4"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <f>B43+B44+B45</f>
+        <v>3</v>
+      </c>
+      <c r="C46">
+        <f>C43+C44+C45</f>
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <f>B46+C46</f>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Zeitaufzeichnung.xlsx
+++ b/Zeitaufzeichnung.xlsx
@@ -149,7 +149,7 @@
     <t>stunden Gesamt</t>
   </si>
   <si>
-    <t>bis jetzt 2</t>
+    <t>bis jetzt 4</t>
   </si>
 </sst>
 </file>
@@ -507,7 +507,7 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,7 +551,7 @@
         <v>4</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H4">
         <v>4</v>
@@ -562,7 +562,7 @@
         <v>5</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H5">
         <v>8</v>
@@ -588,7 +588,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="1">
-        <v>11.5</v>
+        <v>26</v>
       </c>
       <c r="H9" s="4">
         <v>21.5</v>
@@ -621,7 +621,7 @@
         <v>10</v>
       </c>
       <c r="F12" s="1">
-        <v>2.5</v>
+        <v>14</v>
       </c>
       <c r="H12">
         <v>7</v>
